--- a/2_specs/domain/csp_audiencetype.xlsx
+++ b/2_specs/domain/csp_audiencetype.xlsx
@@ -1047,7 +1047,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
